--- a/Input_Output/2026/2027_GUROBI.xlsx
+++ b/Input_Output/2026/2027_GUROBI.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TAs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="assigned_TAs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="taken_courses" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="happiness" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="df_ta_task" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="assigned_TAs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taken_courses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="happiness" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="df_ta_task" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,16 +21,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -49,21 +46,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,42 +426,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Abbr.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Part of full time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>From prev. year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Target</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Assigned</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Deviation</t>
         </is>
@@ -1731,244 +1719,244 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Course code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>SSY156</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>SSY281</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>EEN105</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>EEN185</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>LEU340</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>SSY326</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>SSY300</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>SSY310</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>SSY052</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>SSY191</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>EEN090</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>SSY263</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>LET086</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>LEU076</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>LEU751</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>EEM076</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>SSY036</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>SSY051</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>SSY061</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>ESS101</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>SSY165</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>EEN025</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>TRA445</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>EEN050</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>SSY295</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>EEN130</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>EEN095</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>EEN175</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>SSY331</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>EEN150</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>EEN030</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>SSY049</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>LEU470</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>SSY226</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>TME095</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>ERE033</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>ERE103</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>ESS217</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>SSY230</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>SSY285</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>SSY236</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>LEU236</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>SSY251</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>LEU237</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>LEU744</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>ERE091</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">Course administration </t>
         </is>
@@ -2113,7 +2101,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Exercise sessions</t>
         </is>
@@ -2258,7 +2246,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Problem solving sessions</t>
         </is>
@@ -2403,7 +2391,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Lab 1</t>
         </is>
@@ -2548,7 +2536,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Lab 2</t>
         </is>
@@ -2693,7 +2681,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Computer exercises</t>
         </is>
@@ -2838,7 +2826,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Hand-in correction</t>
         </is>
@@ -2983,7 +2971,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Hand-in supervision</t>
         </is>
@@ -3128,7 +3116,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Project supervision</t>
         </is>
@@ -3188,7 +3176,7 @@
         <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
@@ -3273,7 +3261,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -3418,7 +3406,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Exams</t>
         </is>
@@ -3582,262 +3570,262 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>SSY156</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>SSY281</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>EEN105</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>EEN185</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>LEU340</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>SSY326</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>SSY300</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>SSY310</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>SSY052</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>SSY191</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>EEN090</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>SSY263</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>LET086</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>LEU076</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>LEU751</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>EEM076</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>SSY036</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>SSY051</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>SSY061</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>ESS101</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>SSY165</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>EEN025</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>TRA445</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>EEN050</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>SSY295</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>EEN130</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>EEN095</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>EEN175</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>SSY331</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>EEN150</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>EEN030</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>SSY049</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>LEU470</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>SSY226</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>TME095</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>ERE033</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>ERE103</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>ESS217</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>SSY230</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>SSY285</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>SSY236</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>LEU236</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>SSY251</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>LEU237</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>LEU744</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>ERE091</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>JK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
@@ -3870,7 +3858,7 @@
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>-0</v>
@@ -3900,7 +3888,7 @@
         <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB2" t="n">
         <v>-0</v>
@@ -3936,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -3964,7 +3952,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>HH</t>
         </is>
@@ -4045,7 +4033,7 @@
         <v>-0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -4054,7 +4042,7 @@
         <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
@@ -4063,7 +4051,7 @@
         <v>-0</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
@@ -4090,13 +4078,13 @@
         <v>-0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>-0</v>
@@ -4109,7 +4097,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
@@ -4254,7 +4242,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>AET</t>
         </is>
@@ -4293,7 +4281,7 @@
         <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>-0</v>
@@ -4338,19 +4326,19 @@
         <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
         <v>-0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -4374,7 +4362,7 @@
         <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>-0</v>
@@ -4383,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>-0</v>
@@ -4399,7 +4387,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>SW</t>
         </is>
@@ -4544,7 +4532,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>BS</t>
         </is>
@@ -4574,7 +4562,7 @@
         <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
         <v>-0</v>
@@ -4586,7 +4574,7 @@
         <v>-0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>-0</v>
@@ -4625,7 +4613,7 @@
         <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
@@ -4637,10 +4625,10 @@
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG7" t="n">
         <v>-0</v>
@@ -4655,7 +4643,7 @@
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL7" t="n">
         <v>-0</v>
@@ -4673,10 +4661,10 @@
         <v>-0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -4689,7 +4677,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>EB</t>
         </is>
@@ -4707,7 +4695,7 @@
         <v>-0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
         <v>-0</v>
@@ -4719,10 +4707,10 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>-0</v>
@@ -4773,7 +4761,7 @@
         <v>-0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
         <v>-0</v>
@@ -4830,17 +4818,17 @@
         <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>LM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>-0</v>
@@ -4873,7 +4861,7 @@
         <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -4924,7 +4912,7 @@
         <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>-0</v>
@@ -4933,7 +4921,7 @@
         <v>-0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
@@ -4979,7 +4967,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>DJ</t>
         </is>
@@ -5012,7 +5000,7 @@
         <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
@@ -5042,16 +5030,16 @@
         <v>-0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
@@ -5060,7 +5048,7 @@
         <v>-0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -5069,10 +5057,10 @@
         <v>-0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
         <v>-0</v>
@@ -5105,13 +5093,13 @@
         <v>-0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>-0</v>
@@ -5124,7 +5112,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
@@ -5133,7 +5121,7 @@
         <v>-0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
         <v>-0</v>
@@ -5187,10 +5175,10 @@
         <v>-0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -5205,7 +5193,7 @@
         <v>-0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -5220,10 +5208,10 @@
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -5235,7 +5223,7 @@
         <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>-0</v>
@@ -5244,7 +5232,7 @@
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
         <v>-0</v>
@@ -5253,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>-0</v>
@@ -5269,7 +5257,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>ZL</t>
         </is>
@@ -5414,7 +5402,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CJH</t>
         </is>
@@ -5444,7 +5432,7 @@
         <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -5477,7 +5465,7 @@
         <v>-0</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>-0</v>
@@ -5510,7 +5498,7 @@
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>-0</v>
@@ -5537,7 +5525,7 @@
         <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
         <v>-0</v>
@@ -5559,13 +5547,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>KT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
@@ -5589,10 +5577,10 @@
         <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>-0</v>
@@ -5619,7 +5607,7 @@
         <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>-0</v>
@@ -5652,7 +5640,7 @@
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>-0</v>
@@ -5682,7 +5670,7 @@
         <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
         <v>-0</v>
@@ -5691,7 +5679,7 @@
         <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>-0</v>
@@ -5704,13 +5692,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>IS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>-0</v>
@@ -5719,7 +5707,7 @@
         <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
@@ -5767,13 +5755,13 @@
         <v>-0</v>
       </c>
       <c r="U15" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>-0</v>
@@ -5785,10 +5773,10 @@
         <v>-0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>-0</v>
@@ -5803,7 +5791,7 @@
         <v>-0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>-0</v>
@@ -5830,13 +5818,13 @@
         <v>-0</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
         <v>-0</v>
@@ -5849,7 +5837,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
@@ -5994,7 +5982,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>LK</t>
         </is>
@@ -6003,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>-0</v>
@@ -6051,7 +6039,7 @@
         <v>-0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>-0</v>
@@ -6139,13 +6127,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>ML</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>-0</v>
@@ -6250,7 +6238,7 @@
         <v>-0</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
         <v>-0</v>
@@ -6284,7 +6272,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>HN</t>
         </is>
@@ -6314,10 +6302,10 @@
         <v>-0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L19" t="n">
         <v>-0</v>
@@ -6341,19 +6329,19 @@
         <v>-0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T19" t="n">
         <v>-0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>-0</v>
@@ -6365,13 +6353,13 @@
         <v>-0</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD19" t="n">
         <v>-0</v>
@@ -6383,7 +6371,7 @@
         <v>-0</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>-0</v>
@@ -6404,7 +6392,7 @@
         <v>-0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
@@ -6429,13 +6417,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>NP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>-0</v>
@@ -6574,7 +6562,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>WL</t>
         </is>
@@ -6719,7 +6707,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>KC</t>
         </is>
@@ -6864,7 +6852,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>IB</t>
         </is>
@@ -6879,7 +6867,7 @@
         <v>-0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F23" t="n">
         <v>-0</v>
@@ -6924,13 +6912,13 @@
         <v>-0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W23" t="n">
         <v>-0</v>
@@ -6945,16 +6933,16 @@
         <v>-0</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC23" t="n">
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>-0</v>
@@ -6975,7 +6963,7 @@
         <v>-0</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
         <v>-0</v>
@@ -6990,7 +6978,7 @@
         <v>-0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ23" t="n">
         <v>-0</v>
@@ -6999,17 +6987,17 @@
         <v>-0</v>
       </c>
       <c r="AS23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
         <v>-0</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>MV</t>
         </is>
@@ -7069,10 +7057,10 @@
         <v>-0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -7090,10 +7078,10 @@
         <v>-0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
         <v>-0</v>
@@ -7108,7 +7096,7 @@
         <v>-0</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
         <v>-0</v>
@@ -7120,7 +7108,7 @@
         <v>-0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL24" t="n">
         <v>-0</v>
@@ -7132,16 +7120,16 @@
         <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
         <v>-0</v>
@@ -7154,7 +7142,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>JZ</t>
         </is>
@@ -7299,7 +7287,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
@@ -7444,7 +7432,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>GP</t>
         </is>
@@ -7459,7 +7447,7 @@
         <v>-0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F27" t="n">
         <v>-0</v>
@@ -7477,7 +7465,7 @@
         <v>-0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L27" t="n">
         <v>-0</v>
@@ -7510,10 +7498,10 @@
         <v>-0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X27" t="n">
         <v>1</v>
@@ -7528,7 +7516,7 @@
         <v>-0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC27" t="n">
         <v>-0</v>
@@ -7543,7 +7531,7 @@
         <v>-0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH27" t="n">
         <v>-0</v>
@@ -7589,7 +7577,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>AS</t>
         </is>
@@ -7622,7 +7610,7 @@
         <v>-0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L28" t="n">
         <v>-0</v>
@@ -7670,7 +7658,7 @@
         <v>-0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -7679,7 +7667,7 @@
         <v>-0</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>-0</v>
@@ -7688,7 +7676,7 @@
         <v>-0</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>-0</v>
@@ -7700,7 +7688,7 @@
         <v>-0</v>
       </c>
       <c r="AK28" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AL28" t="n">
         <v>-0</v>
@@ -7709,7 +7697,7 @@
         <v>-0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO28" t="n">
         <v>1</v>
@@ -7721,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="AR28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
         <v>-0</v>
@@ -7734,13 +7722,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>GAW</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C29" t="n">
         <v>-0</v>
@@ -7764,7 +7752,7 @@
         <v>-0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -7785,7 +7773,7 @@
         <v>-0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R29" t="n">
         <v>-0</v>
@@ -7797,7 +7785,7 @@
         <v>-0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -7815,7 +7803,7 @@
         <v>-0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
         <v>-0</v>
@@ -7879,7 +7867,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Ebr</t>
         </is>
@@ -8024,7 +8012,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
@@ -8169,7 +8157,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
@@ -8314,7 +8302,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>MR</t>
         </is>
@@ -8347,7 +8335,7 @@
         <v>-0</v>
       </c>
       <c r="K33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>-0</v>
@@ -8459,7 +8447,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>KEK</t>
         </is>
@@ -8604,7 +8592,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
@@ -8749,7 +8737,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
@@ -8894,7 +8882,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>NH</t>
         </is>
@@ -9039,7 +9027,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Mec1</t>
         </is>
@@ -9184,13 +9172,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Aut1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>-0</v>
@@ -9214,7 +9202,7 @@
         <v>-0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>-0</v>
@@ -9226,7 +9214,7 @@
         <v>-0</v>
       </c>
       <c r="N39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>-0</v>
@@ -9241,7 +9229,7 @@
         <v>-0</v>
       </c>
       <c r="S39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>-0</v>
@@ -9253,7 +9241,7 @@
         <v>-0</v>
       </c>
       <c r="W39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>-0</v>
@@ -9265,19 +9253,19 @@
         <v>-0</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
         <v>-0</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
         <v>-0</v>
@@ -9295,7 +9283,7 @@
         <v>-0</v>
       </c>
       <c r="AK39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
         <v>-0</v>
@@ -9313,13 +9301,13 @@
         <v>-0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT39" t="n">
         <v>-0</v>
@@ -9329,7 +9317,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>LN</t>
         </is>
@@ -9474,7 +9462,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>IK</t>
         </is>
@@ -9489,7 +9477,7 @@
         <v>-0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F41" t="n">
         <v>-0</v>
@@ -9504,7 +9492,7 @@
         <v>-0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="K41" t="n">
         <v>-0</v>
@@ -9513,7 +9501,7 @@
         <v>-0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N41" t="n">
         <v>-0</v>
@@ -9537,13 +9525,13 @@
         <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X41" t="n">
         <v>-0</v>
@@ -9555,10 +9543,10 @@
         <v>-0</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC41" t="n">
         <v>-0</v>
@@ -9594,16 +9582,16 @@
         <v>-0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO41" t="n">
         <v>-0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR41" t="n">
         <v>-0</v>
@@ -9619,7 +9607,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>QZ</t>
         </is>
@@ -9764,7 +9752,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
@@ -9909,7 +9897,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Mec2</t>
         </is>
@@ -9948,7 +9936,7 @@
         <v>-0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>-0</v>
@@ -9972,13 +9960,13 @@
         <v>-0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>-0</v>
@@ -9999,16 +9987,16 @@
         <v>-0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AE44" t="n">
         <v>-0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
         <v>-0</v>
@@ -10041,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
         <v>-0</v>
@@ -10054,13 +10042,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Mec3</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C45" t="n">
         <v>-0</v>
@@ -10069,7 +10057,7 @@
         <v>-0</v>
       </c>
       <c r="E45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>-0</v>
@@ -10084,7 +10072,7 @@
         <v>-0</v>
       </c>
       <c r="J45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>-0</v>
@@ -10096,7 +10084,7 @@
         <v>-0</v>
       </c>
       <c r="N45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>-0</v>
@@ -10114,7 +10102,7 @@
         <v>-0</v>
       </c>
       <c r="T45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -10153,7 +10141,7 @@
         <v>-0</v>
       </c>
       <c r="AG45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
         <v>-0</v>
@@ -10165,7 +10153,7 @@
         <v>-0</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AL45" t="n">
         <v>0</v>
@@ -10174,7 +10162,7 @@
         <v>-0</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO45" t="n">
         <v>-0</v>
@@ -10183,10 +10171,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS45" t="n">
         <v>-0</v>
@@ -10218,22 +10206,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>TA</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Happiness</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Switched Courses</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Taught courses</t>
         </is>
@@ -10454,13 +10442,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-33.33333333333334</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -10518,13 +10506,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-33.33333333333334</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -10588,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -10598,13 +10586,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -10662,13 +10650,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -10684,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -10870,13 +10858,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -10918,13 +10906,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -10963,244 +10951,244 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Course code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>SSY156</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>SSY281</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>EEN105</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>EEN185</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>LEU340</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>SSY326</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>SSY300</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>SSY310</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>SSY052</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>SSY191</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>EEN090</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>SSY263</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>LET086</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>LEU076</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>LEU751</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>EEM076</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>SSY036</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>SSY051</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>SSY061</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>ESS101</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>SSY165</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>EEN025</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>TRA445</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>EEN050</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>SSY295</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>EEN130</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>EEN095</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>EEN175</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>SSY331</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>EEN150</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>EEN030</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>SSY049</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>LEU470</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>SSY226</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>TME095</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>ERE033</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>ERE103</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>ESS217</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>SSY230</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>SSY285</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>SSY236</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>LEU236</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>SSY251</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>LEU237</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>LEU744</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>ERE091</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">Course administration </t>
         </is>
@@ -11236,7 +11224,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>IS: 40.0</t>
+          <t>CJH: 40.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -11266,7 +11254,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>MA: 20.0</t>
+          <t>IS: 20.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -11357,7 +11345,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Exercise sessions</t>
         </is>
@@ -11407,7 +11395,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>AET: 10.0, MA: 52.0, IK: 10.0</t>
+          <t>AET: 10.0, IS: 52.0, MA: 10.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -11447,7 +11435,7 @@
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>AL: 242.0, KT: 10.0</t>
+          <t>AL: 242.0, Mec3: 10.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -11463,7 +11451,7 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>ML: 10.0, Aut1: 74.0</t>
+          <t>EB: 74.0, Aut1: 10.0</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr"/>
@@ -11490,7 +11478,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Problem solving sessions</t>
         </is>
@@ -11509,7 +11497,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>MV: 62.0, IK: 10.0</t>
+          <t>HN: 10.0, MV: 62.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -11544,7 +11532,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>AET: 86.0, IK: 10.0</t>
+          <t>IS: 86.0, MA: 10.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -11566,7 +11554,7 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MV: 10.0, JZ: 74.0</t>
+          <t>JZ: 74.0, GAW: 10.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -11615,7 +11603,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Lab 1</t>
         </is>
@@ -11697,7 +11685,7 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>EB: 142.0, ML: 10.0, Aut1: 10.0</t>
+          <t>EB: 142.0, HN: 10.0, Aut1: 10.0</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr"/>
@@ -11720,7 +11708,7 @@
       <c r="AU5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Lab 2</t>
         </is>
@@ -11793,14 +11781,14 @@
       <c r="AU6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Computer exercises</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CJH: 38.0, Mec3: 10.0</t>
+          <t>CJH: 38.0, IS: 10.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -11858,14 +11846,14 @@
       <c r="AU7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Hand-in correction</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CJH: 43.0, Mec3: 10.0</t>
+          <t>CJH: 43.0, IS: 10.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -11885,12 +11873,12 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MV: 70.0, IK: 10.0</t>
+          <t>HN: 10.0, MV: 70.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>MA: 224.0</t>
+          <t>CJH: 224.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -11928,7 +11916,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>AET: 110.0, IK: 10.0</t>
+          <t>IS: 110.0, MA: 10.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -11984,7 +11972,7 @@
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>AL: 64.0, KT: 10.0, AS: 10.0</t>
+          <t>AL: 64.0, KT: 10.0, Mec3: 10.0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -12004,7 +11992,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>EB: 12.0, ML: 8.0, HN: 8.0, FR: 8.0, AS: 8.0, Aut1: 8.0</t>
+          <t>EB: 8.0, ML: 8.0, HN: 8.0, FR: 8.0, AS: 8.0, Aut1: 12.0</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -12027,14 +12015,14 @@
       <c r="AU8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Hand-in supervision</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CJH: 38.0, Mec3: 10.0</t>
+          <t>CJH: 38.0, IS: 10.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12055,7 +12043,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CJH: 24.0</t>
+          <t>MA: 24.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -12066,7 +12054,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NP: 36.0</t>
+          <t>KEK: 36.0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -12077,7 +12065,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>AET: 55.0, MA: 10.0, IK: 10.0</t>
+          <t>AET: 10.0, IS: 55.0, MA: 10.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -12117,7 +12105,7 @@
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>AL: 34.0, KT: 10.0, AS: 10.0</t>
+          <t>AL: 34.0, KT: 10.0, Mec3: 10.0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -12148,14 +12136,14 @@
       <c r="AU9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Project supervision</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CJH: 90.0, Mec3: 10.0</t>
+          <t>CJH: 90.0, IS: 10.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -12176,7 +12164,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CJH: 10.0, IS: 10.0, MA: 232.0, AB: 10.0</t>
+          <t>CJH: 232.0, IS: 10.0, MA: 10.0, AB: 10.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -12197,7 +12185,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>BS: 21.0</t>
+          <t>BS: 10.0, IK: 11.0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -12211,7 +12199,7 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>LK: 150.0, Mec2: 10.0</t>
+          <t>LK: 150.0, IB: 10.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr"/>
@@ -12241,7 +12229,7 @@
       <c r="AU10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -12294,7 +12282,7 @@
       <c r="AU11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Exams</t>
         </is>
@@ -12321,12 +12309,12 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>MV: 80.0, IK: 10.0</t>
+          <t>HN: 10.0, MV: 80.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>IS: 74.0, MA: 10.0</t>
+          <t>IS: 10.0, MA: 74.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -12351,12 +12339,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>NH: 86.0, IK: 10.0</t>
+          <t>NH: 10.0, IK: 86.0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>AET: 80.0, IK: 10.0</t>
+          <t>IS: 80.0, MA: 10.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -12396,7 +12384,7 @@
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>AL: 92.0, KT: 10.0</t>
+          <t>AL: 92.0, Mec3: 10.0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -12412,7 +12400,7 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>FR: 86.0, Aut1: 10.0</t>
+          <t>EB: 86.0, Aut1: 10.0</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr"/>
